--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,27 +1650,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
+          <t>T_B_ELC_NORTH_SOUTH_01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NG</t>
-        </is>
+          <t>ELC</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>NORTH</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>T_B_NG_NORTH_SOUTH_01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>SOUTH</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>T_B_NG_NORTH_SOUTH_01</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>NG</t>
         </is>

--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>techname</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>techdesc</t>
+          <t>description</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>techname</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>ire_price</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -891,22 +891,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>invcost</t>
+          <t>ncap_cost</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>fixom</t>
+          <t>ncap_fom</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>varom</t>
+          <t>act_cost</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>ncap_tlife</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -926,17 +926,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>commodity</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>commodity</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>value</t>
+          <t>com_proj</t>
         </is>
       </c>
     </row>
@@ -1481,15 +1476,10 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>DEMAND</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
           <t>RSD</t>
         </is>
       </c>
-      <c r="S42" t="n">
+      <c r="R42" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1504,15 +1494,10 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>DEMAND</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
           <t>RSD</t>
         </is>
       </c>
-      <c r="S43" t="n">
+      <c r="R43" t="n">
         <v>120</v>
       </c>
     </row>
@@ -1527,15 +1512,10 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>DEMAND</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
           <t>RSD</t>
         </is>
       </c>
-      <c r="S44" t="n">
+      <c r="R44" t="n">
         <v>140</v>
       </c>
     </row>
@@ -1550,15 +1530,10 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>DEMAND</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="S45" t="n">
+      <c r="R45" t="n">
         <v>200</v>
       </c>
     </row>
@@ -1573,15 +1548,10 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>DEMAND</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="S46" t="n">
+      <c r="R46" t="n">
         <v>220</v>
       </c>
     </row>
@@ -1596,15 +1566,10 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>DEMAND</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="S47" t="n">
+      <c r="R47" t="n">
         <v>235</v>
       </c>
     </row>

--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -861,7 +861,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ire_price</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -861,7 +861,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>ire_price</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,11 +1138,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PP_WIND</t>
+          <t>PP_SOLAR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1161,13 +1161,11 @@
           <t>ELC</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>30</v>
+      <c r="K26" t="n">
+        <v>15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1186,11 +1184,13 @@
           <t>ELC</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>15</v>
-      </c>
-      <c r="M27" t="n">
-        <v>25</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1209,13 +1209,11 @@
           <t>ELC</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FX</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1235,10 +1233,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>900</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="30">
@@ -1258,10 +1256,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="P30" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="31">
@@ -1281,10 +1279,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="P31" t="n">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="32">
@@ -1295,19 +1293,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PP_SOLAR</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+          <t>PP_ELYZ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>ELC</t>
         </is>
-      </c>
-      <c r="J32" t="n">
-        <v>350</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2040</v>
       </c>
     </row>
     <row r="33">
@@ -1321,9 +1313,9 @@
           <t>PP_ELYZ</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>ELC</t>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H2</t>
         </is>
       </c>
     </row>
@@ -1338,10 +1330,14 @@
           <t>PP_ELYZ</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
+      <c r="I34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>500</v>
+      </c>
+      <c r="M34" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1352,17 +1348,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PP_ELYZ</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>500</v>
-      </c>
-      <c r="M35" t="n">
-        <v>20</v>
+          <t>DMD_RSD</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1376,9 +1368,9 @@
           <t>DMD_RSD</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>ELC</t>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RSD</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1382,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DMD_RSD</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>RSD</t>
+          <t>DMD_IND</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ELC</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1404,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ELC</t>
+          <t>NG</t>
         </is>
       </c>
     </row>
@@ -1427,9 +1419,9 @@
           <t>DMD_IND</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NG</t>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -1444,10 +1436,8 @@
           <t>DMD_IND</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
+      <c r="I40" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="41">
@@ -1456,13 +1446,16 @@
           <t>NORTH,SOUTH</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DMD_IND</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0.9</v>
+      <c r="P41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -1472,7 +1465,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -1480,7 +1473,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -1490,7 +1483,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -1498,7 +1491,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
@@ -1508,15 +1501,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
@@ -1526,7 +1519,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -1534,7 +1527,7 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +1537,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -1552,31 +1545,30 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>2040</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>235</v>
+          <t>NORTH</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>T_B_ELC_NORTH_SOUTH_01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NORTH</t>
+          <t>SOUTH</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1584,7 +1576,7 @@
           <t>T_B_ELC_NORTH_SOUTH_01</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>ELC</t>
         </is>
@@ -1593,7 +1585,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOUTH</t>
+          <t>NORTH</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1601,10 +1593,13 @@
           <t>T_B_ELC_NORTH_SOUTH_01</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>ELC</t>
         </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="50">
@@ -1615,22 +1610,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
+          <t>T_B_NG_NORTH_SOUTH_01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0.97</v>
+          <t>NG</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NORTH</t>
+          <t>SOUTH</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1638,24 +1630,7 @@
           <t>T_B_NG_NORTH_SOUTH_01</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>NG</t>
         </is>

--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,16 +924,6 @@
           <t>year</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>commodity</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>com_proj</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1443,194 +1433,86 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>2020</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>RSD</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>100</v>
+          <t>NORTH</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>T_B_ELC_NORTH_SOUTH_01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>2030</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>RSD</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>120</v>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>T_B_ELC_NORTH_SOUTH_01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>2040</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>RSD</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>140</v>
+          <t>NORTH</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>T_B_ELC_NORTH_SOUTH_01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>2020</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>200</v>
+          <t>NORTH</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>T_B_NG_NORTH_SOUTH_01</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>2030</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>2040</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
           <t>SOUTH</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>T_B_NG_NORTH_SOUTH_01</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>NG</t>
         </is>

--- a/VT_MINISYSTEM_MiniSystem.xlsx
+++ b/VT_MINISYSTEM_MiniSystem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,204 +724,171 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Trade ELC from NORTH to SOUTH</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Trade ELC from NORTH to SOUTH</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>~FI_T</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NORTH</t>
+          <t>region</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trade NG from NORTH to SOUTH</t>
+          <t>commodity-out</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>ire_price</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>limtype</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>act_bnd</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>commodity-in</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>share-o</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>eff</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ncap_cost</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ncap_fom</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>act_cost</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>ncap_tlife</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>cap_bnd</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>ncap_bnd</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOUTH</t>
+          <t>NORTH,SOUTH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
+          <t>IMP_NG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trade NG from NORTH to SOUTH</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>PJ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NORTH,SOUTH</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IMP_NG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>~FI_T</t>
+          <t>NORTH,SOUTH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PP_CCGT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NG</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>NORTH,SOUTH</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>PP_CCGT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>commodity-out</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ire_price</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>limtype</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>act_bnd</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>commodity-in</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>share-o</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>eff</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ncap_cost</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ncap_fom</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>act_cost</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>ncap_tlife</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>cap_bnd</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>ncap_bnd</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>year</t>
+          <t>ELC</t>
         </is>
       </c>
     </row>
@@ -933,16 +900,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IMP_NG</t>
+          <t>PP_CCGT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>5</v>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
@@ -953,12 +920,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IMP_NG</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>NG</t>
+          <t>PP_CCGT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -966,8 +928,23 @@
           <t>UP</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>500</v>
+      <c r="I18" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>800</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -981,10 +958,18 @@
           <t>PP_CCGT</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -995,13 +980,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PP_CCGT</t>
+          <t>PP_WIND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>ELC</t>
         </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K20" t="n">
+        <v>25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1012,16 +1006,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PP_CCGT</t>
+          <t>PP_WIND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>0.05</v>
+          <t>ELC</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -1032,31 +1031,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PP_CCGT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J22" t="n">
-        <v>800</v>
+          <t>PP_SOLAR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ELC</t>
+        </is>
       </c>
       <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1067,7 +1054,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PP_CCGT</t>
+          <t>PP_SOLAR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1077,11 +1064,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>FX</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1092,7 +1079,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PP_WIND</t>
+          <t>PP_SOLAR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1101,13 +1088,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1200</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1118,7 +1102,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PP_WIND</t>
+          <t>PP_SOLAR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1126,13 +1110,11 @@
           <t>ELC</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>30</v>
+      <c r="J25" t="n">
+        <v>900</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="26">
@@ -1151,11 +1133,11 @@
           <t>ELC</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>15</v>
-      </c>
-      <c r="M26" t="n">
-        <v>25</v>
+      <c r="J26" t="n">
+        <v>550</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2030</v>
       </c>
     </row>
     <row r="27">
@@ -1174,13 +1156,11 @@
           <t>ELC</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>FX</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
+      <c r="J27" t="n">
+        <v>350</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2040</v>
       </c>
     </row>
     <row r="28">
@@ -1191,19 +1171,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PP_SOLAR</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>PP_ELYZ</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>ELC</t>
         </is>
-      </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1214,19 +1188,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PP_SOLAR</t>
+          <t>PP_ELYZ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>900</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2020</v>
+          <t>H2</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1237,19 +1205,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PP_SOLAR</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
+          <t>PP_ELYZ</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>550</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2030</v>
+        <v>500</v>
+      </c>
+      <c r="M30" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1260,19 +1226,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PP_SOLAR</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>DMD_RSD</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>ELC</t>
         </is>
-      </c>
-      <c r="J31" t="n">
-        <v>350</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2040</v>
       </c>
     </row>
     <row r="32">
@@ -1283,12 +1243,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PP_ELYZ</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>ELC</t>
+          <t>DMD_RSD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RSD</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1260,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PP_ELYZ</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>H2</t>
+          <t>DMD_IND</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ELC</t>
         </is>
       </c>
     </row>
@@ -1317,17 +1277,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PP_ELYZ</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>500</v>
-      </c>
-      <c r="M34" t="n">
-        <v>20</v>
+          <t>DMD_IND</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1338,12 +1294,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DMD_RSD</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>ELC</t>
+          <t>DMD_IND</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -1355,167 +1311,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DMD_RSD</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>RSD</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>DMD_IND</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DMD_IND</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DMD_IND</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NORTH,SOUTH</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DMD_IND</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I36" t="n">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>T_B_ELC_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ELC</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>NORTH</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>T_B_NG_NORTH_SOUTH_01</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
       </c>
     </row>
   </sheetData>
